--- a/Gráficos.xlsx
+++ b/Gráficos.xlsx
@@ -657,11 +657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46803968"/>
-        <c:axId val="42679040"/>
+        <c:axId val="104911360"/>
+        <c:axId val="89101952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46803968"/>
+        <c:axId val="104911360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +671,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42679040"/>
+        <c:crossAx val="89101952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -679,7 +679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42679040"/>
+        <c:axId val="89101952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +690,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46803968"/>
+        <c:crossAx val="104911360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1049,11 +1049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85806592"/>
-        <c:axId val="39849920"/>
+        <c:axId val="104912896"/>
+        <c:axId val="111624192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85806592"/>
+        <c:axId val="104912896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1063,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39849920"/>
+        <c:crossAx val="111624192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1071,7 +1071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39849920"/>
+        <c:axId val="111624192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1082,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85806592"/>
+        <c:crossAx val="104912896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,11 +1537,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85945856"/>
-        <c:axId val="151129472"/>
+        <c:axId val="104913408"/>
+        <c:axId val="111626496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85945856"/>
+        <c:axId val="104913408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1551,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151129472"/>
+        <c:crossAx val="111626496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1559,7 +1559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151129472"/>
+        <c:axId val="111626496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1571,7 +1571,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85945856"/>
+        <c:crossAx val="104913408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2027,11 +2027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90197504"/>
-        <c:axId val="155074560"/>
+        <c:axId val="117428224"/>
+        <c:axId val="111628800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90197504"/>
+        <c:axId val="117428224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2041,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155074560"/>
+        <c:crossAx val="111628800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2049,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155074560"/>
+        <c:axId val="111628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2062,7 +2062,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90197504"/>
+        <c:crossAx val="117428224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2503,15 +2503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -2521,7 +2521,7 @@
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2931,8 +2931,12 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14">
+        <f>AVERAGE(B14:K14)</f>
+        <v>0.70109999999999995</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2966,8 +2970,12 @@
       <c r="K15">
         <v>0.93899999999999995</v>
       </c>
+      <c r="L15">
+        <f>AVERAGE(B15:K15)</f>
+        <v>0.59170000000000011</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3001,8 +3009,12 @@
       <c r="K16">
         <v>1</v>
       </c>
+      <c r="L16">
+        <f>AVERAGE(B16:K16)</f>
+        <v>0.7883</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3036,8 +3048,12 @@
       <c r="K17">
         <v>1</v>
       </c>
+      <c r="L17">
+        <f>AVERAGE(B17:K17)</f>
+        <v>0.80920000000000003</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -3069,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3103,8 +3119,12 @@
       <c r="K20" s="1">
         <v>100</v>
       </c>
+      <c r="L20">
+        <f>AVERAGE(B20:K20)</f>
+        <v>82.944199999999995</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3138,8 +3158,12 @@
       <c r="K21" s="1">
         <v>96</v>
       </c>
+      <c r="L21">
+        <f>AVERAGE(B21:K21)</f>
+        <v>76.985600000000005</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3173,8 +3197,12 @@
       <c r="K22" s="1">
         <v>100</v>
       </c>
+      <c r="L22">
+        <f>AVERAGE(B22:K22)</f>
+        <v>88.323400000000021</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3207,6 +3235,10 @@
       </c>
       <c r="K23" s="1">
         <v>100</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(B23:K23)</f>
+        <v>89.703100000000006</v>
       </c>
     </row>
   </sheetData>
